--- a/medicine/Pharmacie/Minaprine/Minaprine.xlsx
+++ b/medicine/Pharmacie/Minaprine/Minaprine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La minaprine (Bantur, Cantor) est un antidépresseur qui a été utilisé en France dans le traitement de la dépression jusqu'à son retrait du marché en 1996 car il causait des convulsions[2].
-Il a été découvert par Henri Laborit qui l'appelait aussi Agr 1240[3]. Un premier essai a eu lieu à la clinique de la Borde à Cour-Cheverny[4].
-Une étude a montré qu'il agit comme inhibiteur réversible de la monoamine oxydase chez les rats[5]. Une autre étude a montré une diminution de l'activité de l'acétylcholine estérase dans le striatum de rats[6].
+La minaprine (Bantur, Cantor) est un antidépresseur qui a été utilisé en France dans le traitement de la dépression jusqu'à son retrait du marché en 1996 car il causait des convulsions.
+Il a été découvert par Henri Laborit qui l'appelait aussi Agr 1240. Un premier essai a eu lieu à la clinique de la Borde à Cour-Cheverny.
+Une étude a montré qu'il agit comme inhibiteur réversible de la monoamine oxydase chez les rats. Une autre étude a montré une diminution de l'activité de l'acétylcholine estérase dans le striatum de rats.
 </t>
         </is>
       </c>
